--- a/data/income_statement/3digits/total/242_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/242_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>242-Manufacture of tubes, pipes, hollow profiles and related fittings, of steel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>242-Manufacture of tubes, pipes, hollow profiles and related fittings, of steel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5008074.71048</v>
@@ -956,37 +862,42 @@
         <v>5699036.51419</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7448821.206049999</v>
+        <v>7448821.20605</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8059195.93402</v>
+        <v>8059195.934020001</v>
       </c>
       <c r="G5" s="47" t="n">
         <v>8899607.908329999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9572350.126689998</v>
+        <v>10077740.55616</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11137281.37235</v>
+        <v>11640564.97043</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12810262.82057</v>
+        <v>12814673.92426</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>16158286.85193</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21994948.84868</v>
+        <v>21997312.02191</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>21480176.0752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21491363.9338</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>25845073.368</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2743471.68036</v>
@@ -995,37 +906,42 @@
         <v>3484451.76724</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4562183.87933</v>
+        <v>4562183.879330001</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>5083059.47045</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5677218.23162</v>
+        <v>5677218.231619999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6154831.46725</v>
+        <v>6628287.77453</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7523833.31667</v>
+        <v>7916052.29605</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9231631.259900002</v>
+        <v>9234328.043099998</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>11764526.37388</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>13820606.53376</v>
+        <v>13822964.68871</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13779676.2847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13786598.3651</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>17220245.522</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2239698.39416</v>
@@ -1043,13 +959,13 @@
         <v>3181019.54453</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3359965.29</v>
+        <v>3391834.500680001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3519098.74345</v>
+        <v>3629001.42894</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3471153.818169999</v>
+        <v>3472868.13866</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4311308.21929</v>
@@ -1058,13 +974,18 @@
         <v>7976000.14903</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7484876.848870001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7489106.055989999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8442051.039999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>24904.63596</v>
@@ -1076,16 +997,16 @@
         <v>43012.78483</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>47667.93145999999</v>
+        <v>47667.93146</v>
       </c>
       <c r="G8" s="48" t="n">
         <v>41370.13218</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>57553.36944</v>
+        <v>57618.28094999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>94349.31223000001</v>
+        <v>95511.24544</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>107477.7425</v>
@@ -1094,16 +1015,21 @@
         <v>82452.25876</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>198342.16589</v>
+        <v>198347.18417</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>215622.94163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>215659.51271</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>182776.806</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>317264.68622</v>
@@ -1121,34 +1047,39 @@
         <v>282132.86531</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>719892.8144100001</v>
+        <v>773952.68069</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>473138.008</v>
+        <v>477507.28291</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>477063.18583</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>496267.8398200001</v>
+        <v>496267.83982</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1269587.56183</v>
+        <v>1269590.32183</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>917996.5552300001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>918070.63534</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>849883.205</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>10634.33878</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8297.727489999999</v>
+        <v>8297.727490000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>15654.24705</v>
@@ -1160,10 +1091,10 @@
         <v>20771.40754</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>440401.84201</v>
+        <v>441563.1778100001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>33941.36733</v>
+        <v>36259.57943</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>40022.80161</v>
@@ -1172,16 +1103,21 @@
         <v>57010.17498</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>90423.58735000002</v>
+        <v>90426.34735000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>67811.92001999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>67886.00013000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>100320.674</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>193435.7336</v>
@@ -1199,16 +1135,16 @@
         <v>176950.93716</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>161716.46442</v>
+        <v>214610.85837</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>289784.6238100001</v>
+        <v>291503.0554199999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>298631.28009</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>286554.29812</v>
+        <v>286554.2981199999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>363001.86205</v>
@@ -1216,32 +1152,37 @@
       <c r="M11" s="48" t="n">
         <v>619760.25122</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>453236.31</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>113194.61384</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>67106.17125999999</v>
+        <v>67106.17126</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>79235.38488000001</v>
+        <v>79235.38488</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>106516.06778</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>84410.52060999998</v>
+        <v>84410.52060999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>117774.50798</v>
+        <v>117778.64451</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>149412.01686</v>
+        <v>149744.64806</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>138409.10413</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>230424.38399</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>296326.221</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4690810.02426</v>
@@ -1268,7 +1214,7 @@
         <v>5489302.79867</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7172303.207490001</v>
+        <v>7172303.20749</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>7765591.25513</v>
@@ -1277,31 +1223,36 @@
         <v>8617475.043020001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8852457.312280001</v>
+        <v>9303787.875470001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10664143.36435</v>
+        <v>11163057.68752</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12333199.63474</v>
+        <v>12337610.73843</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>15662019.01211</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20725361.28685</v>
+        <v>20727721.70008</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>20562179.51997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20573293.29846</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>24995190.163</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3925674.859559999</v>
+        <v>3925674.85956</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>4804811.93491</v>
@@ -1316,28 +1267,33 @@
         <v>7452782.73268</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7730810.06925</v>
+        <v>8155754.04207</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8926126.873480001</v>
+        <v>9358635.941260001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10110676.68768</v>
+        <v>10114707.62169</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13443943.72956</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17580535.89447</v>
+        <v>17582704.45895</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>17653932.47096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17663244.94044</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>20731466.749</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3582765.65404</v>
@@ -1346,37 +1302,42 @@
         <v>4397375.93683</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5568129.981790001</v>
+        <v>5568129.98179</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6272878.998029999</v>
+        <v>6272878.99803</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>6633112.53905</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6899336.961740001</v>
+        <v>7283131.03784</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8041169.214710001</v>
+        <v>8429174.381890001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9017534.045230001</v>
+        <v>9020283.206940001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12133300.67742</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>15808117.86445</v>
+        <v>15808977.26057</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15875909.01675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15882945.01126</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>17838642.822</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>270763.99176</v>
@@ -1394,28 +1355,33 @@
         <v>679177.1693600001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>643326.4379499999</v>
+        <v>683428.56874</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>713429.89397</v>
+        <v>740070.2767099999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>916274.6672800001</v>
+        <v>917556.43958</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1070453.13211</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1404793.72978</v>
+        <v>1405211.27128</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1392913.19303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1394371.19421</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2359823.476</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>14382.227</v>
@@ -1433,31 +1399,36 @@
         <v>57873.13426000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>64685.07884</v>
+        <v>65732.84477</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>63731.14201</v>
+        <v>81594.65987</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>63577.94527000001</v>
+        <v>63577.94527</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>96855.40697</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>198428.92253</v>
+        <v>199320.54939</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>181319.89863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>182138.37242</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>268851.183</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>57762.98676000001</v>
+        <v>57762.98676</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>66519.87419</v>
@@ -1469,7 +1440,7 @@
         <v>108907.16825</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>82619.89000999999</v>
+        <v>82619.89001</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>123461.59072</v>
@@ -1489,50 +1460,60 @@
       <c r="M18" s="48" t="n">
         <v>203790.36255</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>264149.268</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>765135.1647000001</v>
+        <v>765135.1647</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>684490.8637600001</v>
+        <v>684490.86376</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1052485.01978</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>782047.81596</v>
+        <v>782047.8159600002</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>1164692.31034</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1121647.24303</v>
+        <v>1148033.8334</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1738016.49087</v>
+        <v>1804421.74626</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2222522.94706</v>
+        <v>2222903.11674</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2218075.28255</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3144825.39238</v>
+        <v>3145017.24113</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2908247.04901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2910048.35802</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4263723.414</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>367220.37268</v>
@@ -1544,34 +1525,39 @@
         <v>387428.0411</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>435890.1705700001</v>
+        <v>435890.17057</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>506749.10528</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>542226.7725399999</v>
+        <v>552356.93245</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>646234.6982900001</v>
+        <v>679269.6735700001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>728789.8743599999</v>
+        <v>729046.3468200001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>875293.41612</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1269541.96694</v>
+        <v>1270720.99443</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1512092.89254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1513578.2222</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1553327.363</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>319.22468</v>
@@ -1592,7 +1578,7 @@
         <v>1334.72201</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>980.9597899999999</v>
+        <v>1799.20102</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>4661.26082</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>5167.32843</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>8371.192999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>210130.33759</v>
@@ -1628,28 +1619,33 @@
         <v>261720.87906</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>274766.93974</v>
+        <v>280657.83829</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>346117.6686799999</v>
+        <v>363420.63836</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>380764.9896500001</v>
+        <v>380865.56441</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>467625.17461</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>757393.51268</v>
+        <v>757422.50885</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>897061.59124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>897187.99738</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>846211.524</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>156770.81041</v>
@@ -1667,28 +1663,33 @@
         <v>243683.61023</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>266125.11079</v>
+        <v>270364.37215</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>299136.06982</v>
+        <v>314049.83419</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>343363.62389</v>
+        <v>343519.52159</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>406051.0664400001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>508867.70001</v>
+        <v>510017.73133</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>609863.9728700001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>611222.89639</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>698744.6459999999</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>397914.79202</v>
@@ -1703,31 +1704,36 @@
         <v>346157.64539</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>657943.2050600001</v>
+        <v>657943.2050599999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>579420.47049</v>
+        <v>595676.90095</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1091781.79258</v>
+        <v>1125152.07269</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1493733.0727</v>
+        <v>1493856.76992</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1342781.86643</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1875283.42544</v>
+        <v>1874296.2467</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1396154.15647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1396470.13582</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2710396.051</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>300890.28613</v>
@@ -1745,28 +1751,33 @@
         <v>321850.6481</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>430948.4562</v>
+        <v>470188.72682</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>903940.51264</v>
+        <v>942609.77798</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1238237.83246</v>
+        <v>1238298.76844</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1907244.94889</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7003118.792049999</v>
+        <v>7021823.44758</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4071340.31871</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4071440.61305</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>7934717.632</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5277.717979999999</v>
@@ -1799,13 +1810,18 @@
         <v>183489.55458</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>82654.07609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>82672.67379</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>16329.382</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>6297.39831</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>238514.6995</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>871.093</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16230.4658</v>
@@ -1865,25 +1886,30 @@
         <v>23362.91371</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>31160.89351999999</v>
+        <v>31935.09618</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>37932.62762000001</v>
+        <v>37932.62762</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>48728.6873</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>117179.72192</v>
+        <v>118102.11117</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>120799.81389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>120839.25649</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>128174.743</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>20</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>829.19699</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>119.139</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4413.50907</v>
@@ -1943,7 +1974,7 @@
         <v>11909.65471</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>19938.19035</v>
+        <v>20052.23455</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>24311.1926</v>
@@ -1952,22 +1983,27 @@
         <v>20509.25852</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>8649.615089999999</v>
+        <v>26400.22053</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>45118.42977999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>33692.411</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>507.3538</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>57.64389</v>
+        <v>57.64389000000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>154.43918</v>
@@ -1985,7 +2021,7 @@
         <v>98.42201999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>218.78861</v>
+        <v>218.94954</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>2984.64842</v>
@@ -1994,13 +2030,18 @@
         <v>2037.51985</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6943.48492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>6943.484919999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>27259.464</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>254436.61489</v>
@@ -2018,28 +2059,33 @@
         <v>276598.01635</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>374354.00638</v>
+        <v>413485.44625</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>807989.08841</v>
+        <v>844902.40715</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1139417.77705</v>
+        <v>1139419.85582</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1700794.21852</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6458279.578240001</v>
+        <v>6458308.4976</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3400384.64828</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3400434.738039999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7598130.32</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>389.04287</v>
@@ -2060,7 +2106,7 @@
         <v>1364.19111</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>996.2185500000001</v>
+        <v>1308.83227</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>1032.42979</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>30017.3994</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14421.74</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>13318.18341</v>
@@ -2135,28 +2191,33 @@
         <v>16609.8226</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13557.94016</v>
+        <v>13666.77091</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>25961.20209</v>
+        <v>26516.28811</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>22730.18718</v>
+        <v>22788.88346</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>83467.60068</v>
+        <v>83467.60067999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>145005.34666</v>
+        <v>145008.08814</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>146078.56986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>146070.73414</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>115719.34</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>280201.43635</v>
@@ -2168,34 +2229,39 @@
         <v>325087.15689</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>212867.67436</v>
+        <v>212867.6743599999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>360974.1655700001</v>
+        <v>360974.16557</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>437435.1521900001</v>
+        <v>461928.12952</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1031106.47013</v>
+        <v>1069053.6714</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1200861.58768</v>
+        <v>1200876.49789</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1676011.9735</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5982504.517359999</v>
+        <v>5982512.679799999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3506117.104970001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3506168.57003</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>7229136.124</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>100.74629</v>
@@ -2213,16 +2279,16 @@
         <v>1096.67418</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3149.07784</v>
+        <v>3355.68401</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>457.77894</v>
+        <v>458.81875</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1681.0823</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4669.658649999999</v>
+        <v>4669.65865</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>3515.179599999999</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>1703.40731</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3218.685</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>20545.98357</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8326.21045</v>
+        <v>8326.210449999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>12531.03387</v>
@@ -2255,7 +2326,7 @@
         <v>33027.23637</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>27552.92239</v>
+        <v>28965.29007</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>83771.72807000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>63312.20863</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>17306.206</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>28.28495</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>15.80248</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2659.168</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>243048.74326</v>
@@ -2321,37 +2402,42 @@
         <v>189418.79655</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>295187.63644</v>
+        <v>295187.6364399999</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>178139.18204</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>298863.32314</v>
+        <v>298863.3231400001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>392573.20346</v>
+        <v>416323.2624300001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>987873.0280599999</v>
+        <v>1023563.95986</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1090378.1351</v>
+        <v>1090382.77431</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1542355.70609</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5804369.24611</v>
+        <v>5804377.40855</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3352343.47318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3352394.93824</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7122941.957</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>342.1659</v>
@@ -2372,7 +2458,7 @@
         <v>801.2401600000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>365.49367</v>
+        <v>1208.35565</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>1310.20946</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>27803.23979</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>15823.214</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>16135.51238</v>
@@ -2447,13 +2543,13 @@
         <v>15913.29645</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7881.81496</v>
+        <v>8418.12715</v>
       </c>
       <c r="I43" s="48" t="n">
         <v>14857.08481</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>23720.43275</v>
+        <v>23730.70375</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>30684.4086</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>60938.97358</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>67186.894</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>161224.99005</v>
@@ -2486,28 +2587,33 @@
         <v>414210.08247</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>285643.13089</v>
+        <v>312215.7716</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>632765.3252</v>
+        <v>646755.0038300001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>667616.7936699999</v>
+        <v>667654.2643500001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>673960.7054099999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2330408.62684</v>
+        <v>2331819.34806</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1220122.73316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1220286.58504</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1833732.02</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>158647.59666</v>
@@ -2525,28 +2631,33 @@
         <v>387287.81416</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>236859.90127</v>
+        <v>262468.64439</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>505500.22029</v>
+        <v>519489.8989199999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>480674.2069699999</v>
+        <v>480711.67765</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>533984.77723</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1584383.91269</v>
+        <v>1585794.63391</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>887883.9562399999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>888047.8081200001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>933848.642</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2577.39339</v>
@@ -2564,7 +2675,7 @@
         <v>26922.26831</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>48783.22962</v>
+        <v>49747.12721</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>127265.10491</v>
@@ -2576,16 +2687,21 @@
         <v>139975.92818</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>746024.71415</v>
+        <v>746024.7141500001</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>332238.77692</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>899883.378</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>257378.65175</v>
@@ -2594,58 +2710,63 @@
         <v>221843.031</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>359266.8682500001</v>
+        <v>359266.86825</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>302883.57019</v>
+        <v>302883.5701899999</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>204609.60512</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>287290.64361</v>
+        <v>291721.72665</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>331850.50989</v>
+        <v>351953.17544</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>863492.5238099999</v>
+        <v>863624.7761200002</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>900054.1364099999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>565489.07329</v>
+        <v>581787.66642</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>741254.6370499999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>741455.5938</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1582245.539</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>40619.16441</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>40843.27743</v>
+        <v>40843.27742999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>32786.4061</v>
+        <v>32786.40610000001</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>34687.05117</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>88878.41275</v>
+        <v>88878.41275000002</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>42869.88646000001</v>
+        <v>44100.40861</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>127407.75584</v>
+        <v>129665.79099</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>85036.77393</v>
@@ -2654,22 +2775,27 @@
         <v>505983.7323</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>148174.60771</v>
+        <v>148281.46956</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>161192.55192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>161266.41184</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>204767.053</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1316.29683</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>692.44769</v>
+        <v>692.4476900000001</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1101.08536</v>
@@ -2684,7 +2810,7 @@
         <v>5049.424109999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5406.474230000001</v>
+        <v>5436.2872</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>6645.56509</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>9055.94277</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>74775.535</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>39302.86758000001</v>
+        <v>39302.86758</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>40150.82974</v>
+        <v>40150.82973999999</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>31685.32074</v>
@@ -2720,10 +2851,10 @@
         <v>84003.88515</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>37820.46235</v>
+        <v>39050.9845</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>122001.28161</v>
+        <v>124229.50379</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>78391.20884000001</v>
@@ -2732,16 +2863,21 @@
         <v>502515.92569</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>144225.41189</v>
+        <v>144332.27374</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>152136.60915</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>152210.46907</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>129991.518</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>43246.01747</v>
@@ -2750,37 +2886,42 @@
         <v>29690.82836</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>453699.6212</v>
+        <v>453699.6212000001</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>38523.75758</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>38264.38870999999</v>
+        <v>38264.38871</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>39608.20254</v>
+        <v>40565.16732000001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>39035.46801</v>
+        <v>40418.23934</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>81825.21563999999</v>
+        <v>81832.58416</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>62892.50278000001</v>
+        <v>62892.50278</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>164500.74434</v>
+        <v>164545.6424</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>138684.09208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>138813.26402</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>250609.982</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11150.22843</v>
@@ -2801,10 +2942,10 @@
         <v>5805.47581</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>6175.94147</v>
+        <v>6261.37939</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>8875.551730000001</v>
+        <v>8876.090330000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>24657.38318</v>
@@ -2813,16 +2954,21 @@
         <v>44813.93073</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>68674.23796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>68674.23796000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>160293.124</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5513.83049</v>
+        <v>5513.830489999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>12270.13907</v>
@@ -2840,7 +2986,7 @@
         <v>4867.31383</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12067.89378</v>
+        <v>12080.3861</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>19569.43263</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>6464.185820000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>52357.815</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>26581.95855</v>
@@ -2867,7 +3018,7 @@
         <v>8841.495449999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>56514.83487000001</v>
+        <v>56514.83487</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>17087.5971</v>
@@ -2876,28 +3027,33 @@
         <v>13082.03344</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>28935.4129</v>
+        <v>29892.37768</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>20791.63276</v>
+        <v>22076.47385</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>53380.23128</v>
+        <v>53387.0612</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>34079.50579</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>103923.67922</v>
+        <v>103968.57728</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>63545.6683</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>63674.84024000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>37959.043</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>254751.79869</v>
@@ -2906,37 +3062,42 @@
         <v>232995.48007</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-61646.34684999999</v>
+        <v>-61646.34684999997</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>299046.8637800001</v>
+        <v>299046.86378</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>255223.62916</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>290552.32753</v>
+        <v>295256.96794</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>420222.79772</v>
+        <v>441200.72709</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>866704.0821000001</v>
+        <v>866828.9658900001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1343145.36593</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>549162.93666</v>
+        <v>565523.49358</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>763763.0968900002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>763908.7416199999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1536402.61</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>35713.12389</v>
@@ -2945,7 +3106,7 @@
         <v>35359.47314</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>62475.71811</v>
+        <v>62475.71811000001</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>52195.27417</v>
@@ -2954,28 +3115,33 @@
         <v>38098.58167</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>39687.4505</v>
+        <v>39996.82569999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>71248.21665</v>
+        <v>74775.02996000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>120829.07304</v>
+        <v>120855.6208</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>170762.6332</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>134483.06118</v>
+        <v>134624.11613</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>158744.50145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>158776.37256</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>264217.903</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>219038.6748</v>
@@ -2993,25 +3159,28 @@
         <v>217125.04749</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>250864.87703</v>
+        <v>255260.14224</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>348974.58107</v>
+        <v>366425.69713</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>745875.00906</v>
+        <v>745973.3450900001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1172382.73273</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>414679.87548</v>
+        <v>430899.37745</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>605018.5954399999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>605132.3690599999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1272184.707</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>217</v>
@@ -3047,25 +3219,28 @@
         <v>239</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>287</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>331</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>